--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,57 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>APPT-20250906012654</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Swagat Mitra</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>(919) 458-6958</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09/11/2025</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>60</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dr. Johnson</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-09-06T01:26:54.902061</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>excel_fallback</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -1,43 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWAGAT\RagaAI\medical-ai-agent\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92402F-3EC4-4575-AC10-F9362458CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +50,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,179 +357,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>appointment_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>patient_name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>patient_phone</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>patient_email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>appointment_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>appointment_time</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>duration_minutes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>doctor</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>booking_method</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>APPT-20250906010922</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jane Doe</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>(555) 876-5432</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>09/11/2025</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>60</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Dr. Johnson</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2025-09-06T01:09:22.390416</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>excel_fallback</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>APPT-20250906012654</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Swagat Mitra</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>(919) 458-6958</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>09/11/2025</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>60</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Dr. Johnson</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2025-09-06T01:26:54.902061</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>excel_fallback</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWAGAT\RagaAI\medical-ai-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D92402F-3EC4-4575-AC10-F9362458CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B342393-AD31-4D92-9BB9-318DF880E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+  <si>
+    <t>appointment_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>patient_phone</t>
+  </si>
+  <si>
+    <t>patient_email</t>
+  </si>
+  <si>
+    <t>appointment_date</t>
+  </si>
+  <si>
+    <t>appointment_time</t>
+  </si>
+  <si>
+    <t>duration_minutes</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>booking_method</t>
+  </si>
+  <si>
+    <t>APPT-20250906150512</t>
+  </si>
+  <si>
+    <t>Sarah Martinez</t>
+  </si>
+  <si>
+    <t>(555) 234-7890</t>
+  </si>
+  <si>
+    <t>09/17/2025</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>Dr. Johnson</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>2025-09-06T15:05:12.731368</t>
+  </si>
+  <si>
+    <t>excel_fallback</t>
+  </si>
+  <si>
+    <t>APPT-20250906150921</t>
+  </si>
+  <si>
+    <t>Lisa Chen</t>
+  </si>
+  <si>
+    <t>(555) 456-7890</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>Dr. Brown</t>
+  </si>
+  <si>
+    <t>2025-09-06T15:09:21.419825</t>
+  </si>
+  <si>
+    <t>APPT-20250906151214</t>
+  </si>
+  <si>
+    <t>John Thompson</t>
+  </si>
+  <si>
+    <t>(555) 987-6543</t>
+  </si>
+  <si>
+    <t>09/11/2025</t>
+  </si>
+  <si>
+    <t>2025-09-06T15:12:14.738704</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +152,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,14 +478,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/appointments.xlsx
+++ b/data/appointments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SWAGAT\RagaAI\medical-ai-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B342393-AD31-4D92-9BB9-318DF880E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8663749-6F08-4651-AB7C-642299C8FF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,120 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>appointment_id</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_email</t>
-  </si>
-  <si>
-    <t>appointment_date</t>
-  </si>
-  <si>
-    <t>appointment_time</t>
-  </si>
-  <si>
-    <t>duration_minutes</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>booking_method</t>
-  </si>
-  <si>
-    <t>APPT-20250906150512</t>
-  </si>
-  <si>
-    <t>Sarah Martinez</t>
-  </si>
-  <si>
-    <t>(555) 234-7890</t>
-  </si>
-  <si>
-    <t>09/17/2025</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>Dr. Johnson</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>2025-09-06T15:05:12.731368</t>
-  </si>
-  <si>
-    <t>excel_fallback</t>
-  </si>
-  <si>
-    <t>APPT-20250906150921</t>
-  </si>
-  <si>
-    <t>Lisa Chen</t>
-  </si>
-  <si>
-    <t>(555) 456-7890</t>
-  </si>
-  <si>
-    <t>09/10/2025</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>Dr. Brown</t>
-  </si>
-  <si>
-    <t>2025-09-06T15:09:21.419825</t>
-  </si>
-  <si>
-    <t>APPT-20250906151214</t>
-  </si>
-  <si>
-    <t>John Thompson</t>
-  </si>
-  <si>
-    <t>(555) 987-6543</t>
-  </si>
-  <si>
-    <t>09/11/2025</t>
-  </si>
-  <si>
-    <t>2025-09-06T15:12:14.738704</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -152,30 +50,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,148 +358,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>